--- a/Nexus Light.xlsx
+++ b/Nexus Light.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\AndroidWorkspace\LightAnalyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -972,16 +972,16 @@
                   <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>114</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>129</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>132</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>133</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>132</c:v>
@@ -1185,16 +1185,16 @@
                   <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>149</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>150</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>151</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>150</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="169">
                   <c:v>151</c:v>
@@ -12732,11 +12732,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1296587632"/>
-        <c:axId val="-1296580016"/>
+        <c:axId val="-1201365168"/>
+        <c:axId val="-1201361904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1296587632"/>
+        <c:axId val="-1201365168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12835,7 +12835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1296580016"/>
+        <c:crossAx val="-1201361904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12843,7 +12843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1296580016"/>
+        <c:axId val="-1201361904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -12951,7 +12951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1296587632"/>
+        <c:crossAx val="-1201365168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13876,7 +13876,7 @@
   <dimension ref="A1:E2199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13910,7 +13910,7 @@
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>112.05914467697907</v>
+        <v>112.71337579617834</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -13946,7 +13946,7 @@
       </c>
       <c r="E4">
         <f>MAX(B:B)</f>
-        <v>154</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -14976,7 +14976,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>114</v>
+        <v>400</v>
       </c>
       <c r="C96">
         <v>1685</v>
@@ -14987,7 +14987,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>129</v>
+        <v>396</v>
       </c>
       <c r="C97">
         <v>1452</v>
@@ -14998,7 +14998,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="C98">
         <v>990</v>
@@ -15009,7 +15009,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="C99">
         <v>1230</v>
@@ -15757,7 +15757,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>149</v>
+        <v>350</v>
       </c>
       <c r="C167">
         <v>1757</v>
@@ -15768,7 +15768,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="C168">
         <v>1995</v>
@@ -15779,7 +15779,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>151</v>
+        <v>356</v>
       </c>
       <c r="C169">
         <v>2811</v>
@@ -15790,7 +15790,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>150</v>
+        <v>344</v>
       </c>
       <c r="C170">
         <v>3416</v>
